--- a/March'21/23.03.2021/Bank Statement.xlsx
+++ b/March'21/23.03.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -14,9 +14,11 @@
     <sheet name="Sheet1" sheetId="51" r:id="rId5"/>
     <sheet name="Allocation" sheetId="49" r:id="rId6"/>
     <sheet name="Aiiocation-2" sheetId="52" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="53" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Allocation!$A$1:$W$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Sheet2!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -303,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="169">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -780,6 +782,36 @@
   </si>
   <si>
     <t>23.03.2021</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Singneture</t>
+  </si>
+  <si>
+    <t>Koushik Ahmed Mim</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Desh Mobile Centre</t>
+  </si>
+  <si>
+    <t>030075</t>
+  </si>
+  <si>
+    <t>20/03/2021</t>
+  </si>
+  <si>
+    <t>24/03/2021</t>
   </si>
 </sst>
 </file>
@@ -790,7 +822,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,6 +1141,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2027,7 +2066,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2948,6 +2987,18 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2964,12 +3015,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3107,6 +3152,9 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3194,10 +3242,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3316,6 +3383,71 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="WordArt 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1" noTextEdit="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3286125" y="485775"/>
+          <a:ext cx="2124075" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" fromWordArt="1" anchor="t" upright="1">
+          <a:prstTxWarp prst="textPlain">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:endParaRPr lang="en-US" sz="3600" u="sng" strike="sngStrike" kern="10" cap="small" spc="0">
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3670,70 +3802,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="318" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314"/>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="314"/>
-      <c r="P1" s="314"/>
-      <c r="Q1" s="314"/>
-      <c r="R1" s="314"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="318"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="315" t="s">
+      <c r="A2" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="315"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="319"/>
+      <c r="R2" s="319"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="328" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="327"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="329"/>
+      <c r="R3" s="330"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3742,55 +3874,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="316" t="s">
+      <c r="A4" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="318" t="s">
+      <c r="B4" s="322" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="322" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="320" t="s">
+      <c r="D4" s="316" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="316" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="320" t="s">
+      <c r="F4" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="320" t="s">
+      <c r="G4" s="316" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="320" t="s">
+      <c r="H4" s="316" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="320" t="s">
+      <c r="I4" s="316" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="320" t="s">
+      <c r="J4" s="316" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="329" t="s">
+      <c r="K4" s="331" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="331" t="s">
+      <c r="L4" s="333" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="333" t="s">
+      <c r="M4" s="335" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="335" t="s">
+      <c r="N4" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="337" t="s">
+      <c r="O4" s="339" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="324" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="324" t="s">
+      <c r="Q4" s="326" t="s">
         <v>131</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -3803,23 +3935,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="317"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="330"/>
-      <c r="L5" s="332"/>
-      <c r="M5" s="334"/>
-      <c r="N5" s="336"/>
-      <c r="O5" s="338"/>
-      <c r="P5" s="323"/>
-      <c r="Q5" s="325"/>
+      <c r="A5" s="321"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="332"/>
+      <c r="L5" s="334"/>
+      <c r="M5" s="336"/>
+      <c r="N5" s="338"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="325"/>
+      <c r="Q5" s="327"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -6847,6 +6979,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6863,10 +6999,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6877,7 +7009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
@@ -6893,12 +7025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="341"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="343"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6913,12 +7045,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="342" t="s">
+      <c r="A2" s="344" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="342"/>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -8950,25 +9082,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="345"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="347"/>
       <c r="G1" s="21"/>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="348" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="348"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="350"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -8993,11 +9125,11 @@
       <c r="D4" s="18"/>
       <c r="E4" s="85"/>
       <c r="F4" s="28"/>
-      <c r="J4" s="349" t="s">
+      <c r="J4" s="351" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="350"/>
-      <c r="L4" s="351"/>
+      <c r="K4" s="352"/>
+      <c r="L4" s="353"/>
     </row>
     <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
@@ -9265,11 +9397,11 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="352"/>
-      <c r="B17" s="353"/>
-      <c r="C17" s="353"/>
-      <c r="D17" s="353"/>
-      <c r="E17" s="354"/>
+      <c r="A17" s="354"/>
+      <c r="B17" s="355"/>
+      <c r="C17" s="355"/>
+      <c r="D17" s="355"/>
+      <c r="E17" s="356"/>
       <c r="F17" s="26"/>
       <c r="J17" s="189"/>
       <c r="K17" s="189"/>
@@ -9349,10 +9481,10 @@
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="26"/>
-      <c r="J23" s="355" t="s">
+      <c r="J23" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="355"/>
+      <c r="K23" s="357"/>
       <c r="L23" s="190">
         <f>SUM(L6:L22)</f>
         <v>55530</v>
@@ -9472,119 +9604,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
-      <c r="N1" s="362"/>
-      <c r="O1" s="362"/>
-      <c r="P1" s="362"/>
-      <c r="Q1" s="362"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="364"/>
+      <c r="P1" s="364"/>
+      <c r="Q1" s="364"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="362"/>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
-      <c r="L2" s="362"/>
-      <c r="M2" s="362"/>
-      <c r="N2" s="362"/>
-      <c r="O2" s="362"/>
-      <c r="P2" s="362"/>
-      <c r="Q2" s="362"/>
+      <c r="A2" s="364"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="364"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="364"/>
+      <c r="P2" s="364"/>
+      <c r="Q2" s="364"/>
     </row>
     <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="363" t="s">
+      <c r="A3" s="365" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="363"/>
-      <c r="K3" s="363"/>
-      <c r="L3" s="363"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="363"/>
-      <c r="Q3" s="363"/>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="365"/>
+      <c r="H3" s="365"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="365"/>
+      <c r="K3" s="365"/>
+      <c r="L3" s="365"/>
+      <c r="M3" s="365"/>
+      <c r="N3" s="365"/>
+      <c r="O3" s="365"/>
+      <c r="P3" s="365"/>
+      <c r="Q3" s="365"/>
     </row>
     <row r="4" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="366" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="364"/>
-      <c r="C4" s="364"/>
-      <c r="D4" s="364"/>
-      <c r="E4" s="364"/>
-      <c r="F4" s="364"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="364"/>
-      <c r="I4" s="364"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="364"/>
-      <c r="L4" s="364"/>
-      <c r="M4" s="364"/>
-      <c r="N4" s="364"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="364"/>
-      <c r="Q4" s="364"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
+      <c r="J4" s="366"/>
+      <c r="K4" s="366"/>
+      <c r="L4" s="366"/>
+      <c r="M4" s="366"/>
+      <c r="N4" s="366"/>
+      <c r="O4" s="366"/>
+      <c r="P4" s="366"/>
+      <c r="Q4" s="366"/>
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="365" t="s">
+      <c r="A5" s="367" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="366"/>
+      <c r="B5" s="368"/>
       <c r="C5" s="192"/>
       <c r="D5" s="193" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="193"/>
-      <c r="F5" s="360" t="s">
+      <c r="F5" s="362" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="360"/>
-      <c r="H5" s="360"/>
-      <c r="I5" s="360"/>
-      <c r="J5" s="360"/>
-      <c r="K5" s="360"/>
-      <c r="L5" s="360"/>
-      <c r="M5" s="360"/>
-      <c r="N5" s="360"/>
-      <c r="O5" s="360"/>
-      <c r="P5" s="360"/>
-      <c r="Q5" s="361"/>
-      <c r="T5" s="359" t="s">
+      <c r="G5" s="362"/>
+      <c r="H5" s="362"/>
+      <c r="I5" s="362"/>
+      <c r="J5" s="362"/>
+      <c r="K5" s="362"/>
+      <c r="L5" s="362"/>
+      <c r="M5" s="362"/>
+      <c r="N5" s="362"/>
+      <c r="O5" s="362"/>
+      <c r="P5" s="362"/>
+      <c r="Q5" s="363"/>
+      <c r="T5" s="361" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="360"/>
-      <c r="V5" s="361"/>
+      <c r="U5" s="362"/>
+      <c r="V5" s="363"/>
     </row>
     <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="397" t="s">
+      <c r="A6" s="315" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="194" t="s">
@@ -10080,11 +10212,11 @@
       <c r="O19" s="169"/>
       <c r="P19" s="169"/>
       <c r="Q19" s="174"/>
-      <c r="T19" s="396" t="s">
+      <c r="T19" s="369" t="s">
         <v>146</v>
       </c>
-      <c r="U19" s="396"/>
-      <c r="V19" s="396"/>
+      <c r="U19" s="369"/>
+      <c r="V19" s="369"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="153">
@@ -10311,11 +10443,11 @@
       <c r="Q28" s="174"/>
     </row>
     <row r="29" spans="1:22" s="158" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="356" t="s">
+      <c r="A29" s="358" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="357"/>
-      <c r="C29" s="358"/>
+      <c r="B29" s="359"/>
+      <c r="C29" s="360"/>
       <c r="D29" s="200">
         <f t="shared" ref="D29:P29" si="0">SUM(D7:D28)</f>
         <v>0</v>
@@ -11037,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11066,116 +11198,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
-      <c r="I1" s="362"/>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
-      <c r="N1" s="362"/>
-      <c r="O1" s="362"/>
-      <c r="P1" s="362"/>
-      <c r="Q1" s="362"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="364"/>
+      <c r="P1" s="364"/>
+      <c r="Q1" s="364"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="362"/>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
-      <c r="L2" s="362"/>
-      <c r="M2" s="362"/>
-      <c r="N2" s="362"/>
-      <c r="O2" s="362"/>
-      <c r="P2" s="362"/>
-      <c r="Q2" s="362"/>
+      <c r="A2" s="364"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="364"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="364"/>
+      <c r="P2" s="364"/>
+      <c r="Q2" s="364"/>
     </row>
     <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="363" t="s">
+      <c r="A3" s="365" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="363"/>
-      <c r="K3" s="363"/>
-      <c r="L3" s="363"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="363"/>
-      <c r="Q3" s="363"/>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="365"/>
+      <c r="H3" s="365"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="365"/>
+      <c r="K3" s="365"/>
+      <c r="L3" s="365"/>
+      <c r="M3" s="365"/>
+      <c r="N3" s="365"/>
+      <c r="O3" s="365"/>
+      <c r="P3" s="365"/>
+      <c r="Q3" s="365"/>
     </row>
     <row r="4" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="366" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="364"/>
-      <c r="C4" s="364"/>
-      <c r="D4" s="364"/>
-      <c r="E4" s="364"/>
-      <c r="F4" s="364"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="364"/>
-      <c r="I4" s="364"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="364"/>
-      <c r="L4" s="364"/>
-      <c r="M4" s="364"/>
-      <c r="N4" s="364"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="364"/>
-      <c r="Q4" s="364"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
+      <c r="J4" s="366"/>
+      <c r="K4" s="366"/>
+      <c r="L4" s="366"/>
+      <c r="M4" s="366"/>
+      <c r="N4" s="366"/>
+      <c r="O4" s="366"/>
+      <c r="P4" s="366"/>
+      <c r="Q4" s="366"/>
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="365" t="s">
+      <c r="A5" s="367" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="366"/>
+      <c r="B5" s="368"/>
       <c r="C5" s="192"/>
       <c r="D5" s="193" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="193"/>
-      <c r="F5" s="360" t="s">
+      <c r="F5" s="362" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="360"/>
-      <c r="H5" s="360"/>
-      <c r="I5" s="360"/>
-      <c r="J5" s="360"/>
-      <c r="K5" s="360"/>
-      <c r="L5" s="360"/>
-      <c r="M5" s="360"/>
-      <c r="N5" s="360"/>
-      <c r="O5" s="360"/>
-      <c r="P5" s="360"/>
-      <c r="Q5" s="361"/>
-      <c r="T5" s="359" t="s">
+      <c r="G5" s="362"/>
+      <c r="H5" s="362"/>
+      <c r="I5" s="362"/>
+      <c r="J5" s="362"/>
+      <c r="K5" s="362"/>
+      <c r="L5" s="362"/>
+      <c r="M5" s="362"/>
+      <c r="N5" s="362"/>
+      <c r="O5" s="362"/>
+      <c r="P5" s="362"/>
+      <c r="Q5" s="363"/>
+      <c r="T5" s="361" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="360"/>
-      <c r="V5" s="361"/>
+      <c r="U5" s="362"/>
+      <c r="V5" s="363"/>
     </row>
     <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="194" t="s">
@@ -11376,11 +11508,11 @@
       <c r="O10" s="173"/>
       <c r="P10" s="169"/>
       <c r="Q10" s="174"/>
-      <c r="T10" s="367" t="s">
+      <c r="T10" s="370" t="s">
         <v>121</v>
       </c>
-      <c r="U10" s="368"/>
-      <c r="V10" s="369"/>
+      <c r="U10" s="371"/>
+      <c r="V10" s="372"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="153">
@@ -11469,11 +11601,11 @@
       <c r="O13" s="169"/>
       <c r="P13" s="169"/>
       <c r="Q13" s="174"/>
-      <c r="T13" s="367" t="s">
+      <c r="T13" s="370" t="s">
         <v>123</v>
       </c>
-      <c r="U13" s="368"/>
-      <c r="V13" s="369"/>
+      <c r="U13" s="371"/>
+      <c r="V13" s="372"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="175">
@@ -11639,7 +11771,9 @@
       <c r="A19" s="176">
         <v>13</v>
       </c>
-      <c r="B19" s="166"/>
+      <c r="B19" s="166" t="s">
+        <v>159</v>
+      </c>
       <c r="C19" s="155"/>
       <c r="D19" s="177"/>
       <c r="E19" s="165"/>
@@ -11827,11 +11961,11 @@
       <c r="Q27" s="174"/>
     </row>
     <row r="28" spans="1:21" s="158" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="356" t="s">
+      <c r="A28" s="358" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="357"/>
-      <c r="C28" s="358"/>
+      <c r="B28" s="359"/>
+      <c r="C28" s="360"/>
       <c r="D28" s="200">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -12552,7 +12686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
@@ -12564,61 +12698,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="378" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="375"/>
-      <c r="G1" s="375"/>
-      <c r="H1" s="375"/>
-      <c r="I1" s="375"/>
-      <c r="J1" s="375"/>
-      <c r="K1" s="375"/>
-      <c r="L1" s="375"/>
-      <c r="M1" s="375"/>
-      <c r="N1" s="375"/>
-      <c r="O1" s="375"/>
-      <c r="P1" s="375"/>
-      <c r="Q1" s="375"/>
-      <c r="R1" s="375"/>
-      <c r="S1" s="375"/>
-      <c r="T1" s="375"/>
-      <c r="U1" s="375"/>
-      <c r="V1" s="375"/>
-      <c r="W1" s="375"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="378"/>
+      <c r="O1" s="378"/>
+      <c r="P1" s="378"/>
+      <c r="Q1" s="378"/>
+      <c r="R1" s="378"/>
+      <c r="S1" s="378"/>
+      <c r="T1" s="378"/>
+      <c r="U1" s="378"/>
+      <c r="V1" s="378"/>
+      <c r="W1" s="378"/>
       <c r="X1" s="254"/>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="378" t="s">
+      <c r="A2" s="381" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="387"/>
-      <c r="H2" s="387"/>
-      <c r="I2" s="387"/>
-      <c r="J2" s="387"/>
-      <c r="K2" s="376" t="s">
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="379" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="376"/>
-      <c r="M2" s="376"/>
-      <c r="N2" s="376"/>
-      <c r="O2" s="376"/>
-      <c r="P2" s="376"/>
-      <c r="Q2" s="376"/>
-      <c r="R2" s="376"/>
-      <c r="S2" s="376"/>
-      <c r="T2" s="376"/>
-      <c r="U2" s="376"/>
-      <c r="V2" s="376"/>
-      <c r="W2" s="377"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="379"/>
+      <c r="N2" s="379"/>
+      <c r="O2" s="379"/>
+      <c r="P2" s="379"/>
+      <c r="Q2" s="379"/>
+      <c r="R2" s="379"/>
+      <c r="S2" s="379"/>
+      <c r="T2" s="379"/>
+      <c r="U2" s="379"/>
+      <c r="V2" s="379"/>
+      <c r="W2" s="380"/>
       <c r="X2" s="256"/>
       <c r="Y2" s="256"/>
       <c r="Z2" s="256"/>
@@ -12629,42 +12763,42 @@
     </row>
     <row r="3" spans="1:30" s="148" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="257"/>
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="373" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="370" t="s">
+      <c r="C3" s="374"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="373" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="373"/>
-      <c r="G3" s="374"/>
-      <c r="H3" s="373" t="s">
+      <c r="F3" s="376"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="376" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="373"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="379" t="s">
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="382" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="380"/>
-      <c r="M3" s="381"/>
-      <c r="N3" s="379" t="s">
+      <c r="L3" s="383"/>
+      <c r="M3" s="384"/>
+      <c r="N3" s="382" t="s">
         <v>117</v>
       </c>
-      <c r="O3" s="380"/>
-      <c r="P3" s="381"/>
-      <c r="Q3" s="382" t="s">
+      <c r="O3" s="383"/>
+      <c r="P3" s="384"/>
+      <c r="Q3" s="385" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="373"/>
-      <c r="S3" s="374"/>
-      <c r="T3" s="379" t="s">
+      <c r="R3" s="376"/>
+      <c r="S3" s="377"/>
+      <c r="T3" s="382" t="s">
         <v>118</v>
       </c>
-      <c r="U3" s="380"/>
-      <c r="V3" s="383"/>
-      <c r="W3" s="384" t="s">
+      <c r="U3" s="383"/>
+      <c r="V3" s="386"/>
+      <c r="W3" s="387" t="s">
         <v>120</v>
       </c>
       <c r="X3" s="256"/>
@@ -12742,7 +12876,7 @@
       <c r="V4" s="267" t="s">
         <v>114</v>
       </c>
-      <c r="W4" s="385"/>
+      <c r="W4" s="388"/>
       <c r="X4" s="256"/>
       <c r="Y4" s="256"/>
       <c r="Z4" s="256"/>
@@ -13857,99 +13991,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="365" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="363"/>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="363"/>
-      <c r="F1" s="363"/>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
-      <c r="L1" s="363"/>
-      <c r="M1" s="363"/>
-      <c r="N1" s="363"/>
-      <c r="O1" s="363"/>
-      <c r="P1" s="363"/>
-      <c r="Q1" s="363"/>
-      <c r="R1" s="363"/>
-      <c r="S1" s="363"/>
-      <c r="T1" s="363"/>
-      <c r="U1" s="363"/>
-      <c r="V1" s="363"/>
-      <c r="W1" s="363"/>
+      <c r="B1" s="365"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
+      <c r="N1" s="365"/>
+      <c r="O1" s="365"/>
+      <c r="P1" s="365"/>
+      <c r="Q1" s="365"/>
+      <c r="R1" s="365"/>
+      <c r="S1" s="365"/>
+      <c r="T1" s="365"/>
+      <c r="U1" s="365"/>
+      <c r="V1" s="365"/>
+      <c r="W1" s="365"/>
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="393" t="s">
+      <c r="A2" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="395" t="s">
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="397"/>
+      <c r="G2" s="366"/>
+      <c r="H2" s="366"/>
+      <c r="I2" s="366"/>
+      <c r="J2" s="366"/>
+      <c r="K2" s="398" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="395"/>
-      <c r="M2" s="395"/>
-      <c r="N2" s="395"/>
-      <c r="O2" s="395"/>
-      <c r="P2" s="395"/>
-      <c r="Q2" s="395"/>
-      <c r="R2" s="395"/>
-      <c r="S2" s="395"/>
-      <c r="T2" s="395"/>
-      <c r="U2" s="395"/>
-      <c r="V2" s="395"/>
-      <c r="W2" s="395"/>
+      <c r="L2" s="398"/>
+      <c r="M2" s="398"/>
+      <c r="N2" s="398"/>
+      <c r="O2" s="398"/>
+      <c r="P2" s="398"/>
+      <c r="Q2" s="398"/>
+      <c r="R2" s="398"/>
+      <c r="S2" s="398"/>
+      <c r="T2" s="398"/>
+      <c r="U2" s="398"/>
+      <c r="V2" s="398"/>
+      <c r="W2" s="398"/>
     </row>
     <row r="3" spans="1:23" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="243"/>
-      <c r="B3" s="388" t="s">
+      <c r="B3" s="391" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="389"/>
-      <c r="D3" s="390"/>
-      <c r="E3" s="388" t="s">
+      <c r="C3" s="392"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="391" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="389"/>
-      <c r="G3" s="390"/>
-      <c r="H3" s="388" t="s">
+      <c r="F3" s="392"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="391" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="389"/>
-      <c r="J3" s="390"/>
-      <c r="K3" s="388" t="s">
+      <c r="I3" s="392"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="391" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="389"/>
-      <c r="M3" s="390"/>
-      <c r="N3" s="388" t="s">
+      <c r="L3" s="392"/>
+      <c r="M3" s="393"/>
+      <c r="N3" s="391" t="s">
         <v>117</v>
       </c>
-      <c r="O3" s="389"/>
-      <c r="P3" s="390"/>
-      <c r="Q3" s="388" t="s">
+      <c r="O3" s="392"/>
+      <c r="P3" s="393"/>
+      <c r="Q3" s="391" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="389"/>
-      <c r="S3" s="390"/>
-      <c r="T3" s="388" t="s">
+      <c r="R3" s="392"/>
+      <c r="S3" s="393"/>
+      <c r="T3" s="391" t="s">
         <v>118</v>
       </c>
-      <c r="U3" s="389"/>
-      <c r="V3" s="390"/>
-      <c r="W3" s="391" t="s">
+      <c r="U3" s="392"/>
+      <c r="V3" s="393"/>
+      <c r="W3" s="394" t="s">
         <v>120</v>
       </c>
     </row>
@@ -14020,7 +14154,7 @@
       <c r="V4" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="W4" s="392"/>
+      <c r="W4" s="395"/>
     </row>
     <row r="5" spans="1:23" s="148" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="216">
@@ -14516,4 +14650,914 @@
   <pageMargins left="0" right="0" top="1.25" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="364" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+    </row>
+    <row r="2" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="364"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="399"/>
+      <c r="H2" s="399"/>
+      <c r="I2" s="399"/>
+      <c r="J2" s="399"/>
+      <c r="K2" s="399"/>
+      <c r="L2" s="399"/>
+      <c r="M2" s="399"/>
+      <c r="N2" s="399"/>
+      <c r="O2" s="399"/>
+      <c r="P2" s="399"/>
+      <c r="Q2" s="399"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="365" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="400"/>
+      <c r="H3" s="400"/>
+      <c r="I3" s="400"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
+      <c r="N3" s="400"/>
+      <c r="O3" s="400"/>
+      <c r="P3" s="400"/>
+      <c r="Q3" s="400"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="366" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
+      <c r="N4" s="314"/>
+      <c r="O4" s="314"/>
+      <c r="P4" s="314"/>
+      <c r="Q4" s="314"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="403" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="403"/>
+      <c r="D5" s="150" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="404">
+        <v>1999091953</v>
+      </c>
+      <c r="F5" s="404"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314"/>
+      <c r="O5" s="314"/>
+      <c r="P5" s="314"/>
+      <c r="Q5" s="314"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="403" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="403"/>
+      <c r="D6" s="166" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="405">
+        <v>1777649917</v>
+      </c>
+      <c r="F6" s="406"/>
+      <c r="G6" s="314"/>
+      <c r="H6" s="314"/>
+      <c r="I6" s="314"/>
+      <c r="J6" s="314"/>
+      <c r="K6" s="314"/>
+      <c r="L6" s="314"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314"/>
+      <c r="O6" s="314"/>
+      <c r="P6" s="314"/>
+      <c r="Q6" s="314"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="401" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="401" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="401" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="401" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="401" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="401" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="407" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="407">
+        <v>25</v>
+      </c>
+      <c r="C8" s="407">
+        <v>25</v>
+      </c>
+      <c r="D8" s="407"/>
+      <c r="E8" s="407">
+        <v>50</v>
+      </c>
+      <c r="F8" s="407"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="407" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="407">
+        <v>10</v>
+      </c>
+      <c r="C9" s="407">
+        <v>10</v>
+      </c>
+      <c r="D9" s="407"/>
+      <c r="E9" s="407">
+        <v>20</v>
+      </c>
+      <c r="F9" s="407"/>
+    </row>
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="402"/>
+      <c r="B10" s="402"/>
+      <c r="C10" s="402"/>
+      <c r="D10" s="402"/>
+      <c r="E10" s="402"/>
+      <c r="F10" s="402"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="402"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="402"/>
+      <c r="D11" s="402"/>
+      <c r="E11" s="402"/>
+      <c r="F11" s="402"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="402"/>
+      <c r="B12" s="402"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
+      <c r="E12" s="402"/>
+      <c r="F12" s="402"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="402"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="402"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="402"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="402"/>
+      <c r="D14" s="402"/>
+      <c r="E14" s="402"/>
+      <c r="F14" s="402"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="402"/>
+      <c r="B15" s="402"/>
+      <c r="C15" s="402"/>
+      <c r="D15" s="402"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="402"/>
+    </row>
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="402"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="402"/>
+      <c r="D16" s="402"/>
+      <c r="E16" s="402"/>
+      <c r="F16" s="402"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="402"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="402"/>
+      <c r="D17" s="402"/>
+      <c r="E17" s="402"/>
+      <c r="F17" s="402"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="402"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="402"/>
+      <c r="D18" s="402"/>
+      <c r="E18" s="402"/>
+      <c r="F18" s="402"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="402"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="402"/>
+      <c r="E19" s="402"/>
+      <c r="F19" s="402"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="402"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="402"/>
+      <c r="D20" s="402"/>
+      <c r="E20" s="402"/>
+      <c r="F20" s="402"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="402"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="402"/>
+      <c r="D21" s="402"/>
+      <c r="E21" s="402"/>
+      <c r="F21" s="402"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="402"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="402"/>
+      <c r="D22" s="402"/>
+      <c r="E22" s="402"/>
+      <c r="F22" s="402"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="402"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="402"/>
+      <c r="D23" s="402"/>
+      <c r="E23" s="402"/>
+      <c r="F23" s="402"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="402"/>
+      <c r="B24" s="402"/>
+      <c r="C24" s="402"/>
+      <c r="D24" s="402"/>
+      <c r="E24" s="402"/>
+      <c r="F24" s="402"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="402"/>
+      <c r="B25" s="402"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="402"/>
+      <c r="E25" s="402"/>
+      <c r="F25" s="402"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="402"/>
+      <c r="B26" s="402"/>
+      <c r="C26" s="402"/>
+      <c r="D26" s="402"/>
+      <c r="E26" s="402"/>
+      <c r="F26" s="402"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="402"/>
+      <c r="B27" s="402"/>
+      <c r="C27" s="402"/>
+      <c r="D27" s="402"/>
+      <c r="E27" s="402"/>
+      <c r="F27" s="402"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="402"/>
+      <c r="B28" s="402"/>
+      <c r="C28" s="402"/>
+      <c r="D28" s="402"/>
+      <c r="E28" s="402"/>
+      <c r="F28" s="402"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="402"/>
+      <c r="B29" s="402"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="402"/>
+      <c r="E29" s="402"/>
+      <c r="F29" s="402"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="402"/>
+      <c r="B30" s="402"/>
+      <c r="C30" s="402"/>
+      <c r="D30" s="402"/>
+      <c r="E30" s="402"/>
+      <c r="F30" s="402"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="402"/>
+      <c r="B31" s="402"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="402"/>
+      <c r="E31" s="402"/>
+      <c r="F31" s="402"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="402"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="402"/>
+      <c r="D32" s="402"/>
+      <c r="E32" s="402"/>
+      <c r="F32" s="402"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="402"/>
+      <c r="B33" s="402"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="402"/>
+      <c r="E33" s="402"/>
+      <c r="F33" s="402"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="402"/>
+      <c r="B34" s="402"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="402"/>
+      <c r="E34" s="402"/>
+      <c r="F34" s="402"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="402"/>
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="402"/>
+      <c r="E35" s="402"/>
+      <c r="F35" s="402"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="402"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="402"/>
+      <c r="D36" s="402"/>
+      <c r="E36" s="402"/>
+      <c r="F36" s="402"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="402"/>
+      <c r="B37" s="402"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="402"/>
+      <c r="E37" s="402"/>
+      <c r="F37" s="402"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="402"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="402"/>
+      <c r="D38" s="402"/>
+      <c r="E38" s="402"/>
+      <c r="F38" s="402"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="402"/>
+      <c r="B39" s="402"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="402"/>
+      <c r="E39" s="402"/>
+      <c r="F39" s="402"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="402"/>
+      <c r="B40" s="402"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="402"/>
+      <c r="E40" s="402"/>
+      <c r="F40" s="402"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="402"/>
+      <c r="B41" s="402"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="402"/>
+      <c r="E41" s="402"/>
+      <c r="F41" s="402"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="402"/>
+      <c r="B42" s="402"/>
+      <c r="C42" s="402"/>
+      <c r="D42" s="402"/>
+      <c r="E42" s="402"/>
+      <c r="F42" s="402"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="402"/>
+      <c r="B43" s="402"/>
+      <c r="C43" s="402"/>
+      <c r="D43" s="402"/>
+      <c r="E43" s="402"/>
+      <c r="F43" s="402"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="402"/>
+      <c r="B44" s="402"/>
+      <c r="C44" s="402"/>
+      <c r="D44" s="402"/>
+      <c r="E44" s="402"/>
+      <c r="F44" s="402"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="402"/>
+      <c r="B45" s="402"/>
+      <c r="C45" s="402"/>
+      <c r="D45" s="402"/>
+      <c r="E45" s="402"/>
+      <c r="F45" s="402"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="402"/>
+      <c r="B46" s="402"/>
+      <c r="C46" s="402"/>
+      <c r="D46" s="402"/>
+      <c r="E46" s="402"/>
+      <c r="F46" s="402"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="402"/>
+      <c r="B47" s="402"/>
+      <c r="C47" s="402"/>
+      <c r="D47" s="402"/>
+      <c r="E47" s="402"/>
+      <c r="F47" s="402"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="402"/>
+      <c r="B48" s="402"/>
+      <c r="C48" s="402"/>
+      <c r="D48" s="402"/>
+      <c r="E48" s="402"/>
+      <c r="F48" s="402"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="402"/>
+      <c r="B49" s="402"/>
+      <c r="C49" s="402"/>
+      <c r="D49" s="402"/>
+      <c r="E49" s="402"/>
+      <c r="F49" s="402"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="402"/>
+      <c r="B50" s="402"/>
+      <c r="C50" s="402"/>
+      <c r="D50" s="402"/>
+      <c r="E50" s="402"/>
+      <c r="F50" s="402"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="402"/>
+      <c r="B51" s="402"/>
+      <c r="C51" s="402"/>
+      <c r="D51" s="402"/>
+      <c r="E51" s="402"/>
+      <c r="F51" s="402"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="402"/>
+      <c r="B52" s="402"/>
+      <c r="C52" s="402"/>
+      <c r="D52" s="402"/>
+      <c r="E52" s="402"/>
+      <c r="F52" s="402"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="402"/>
+      <c r="B53" s="402"/>
+      <c r="C53" s="402"/>
+      <c r="D53" s="402"/>
+      <c r="E53" s="402"/>
+      <c r="F53" s="402"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="402"/>
+      <c r="B54" s="402"/>
+      <c r="C54" s="402"/>
+      <c r="D54" s="402"/>
+      <c r="E54" s="402"/>
+      <c r="F54" s="402"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="402"/>
+      <c r="B55" s="402"/>
+      <c r="C55" s="402"/>
+      <c r="D55" s="402"/>
+      <c r="E55" s="402"/>
+      <c r="F55" s="402"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="402"/>
+      <c r="B56" s="402"/>
+      <c r="C56" s="402"/>
+      <c r="D56" s="402"/>
+      <c r="E56" s="402"/>
+      <c r="F56" s="402"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="402"/>
+      <c r="B57" s="402"/>
+      <c r="C57" s="402"/>
+      <c r="D57" s="402"/>
+      <c r="E57" s="402"/>
+      <c r="F57" s="402"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="402"/>
+      <c r="B58" s="402"/>
+      <c r="C58" s="402"/>
+      <c r="D58" s="402"/>
+      <c r="E58" s="402"/>
+      <c r="F58" s="402"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="402"/>
+      <c r="B59" s="402"/>
+      <c r="C59" s="402"/>
+      <c r="D59" s="402"/>
+      <c r="E59" s="402"/>
+      <c r="F59" s="402"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="402"/>
+      <c r="B60" s="402"/>
+      <c r="C60" s="402"/>
+      <c r="D60" s="402"/>
+      <c r="E60" s="402"/>
+      <c r="F60" s="402"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="402"/>
+      <c r="B61" s="402"/>
+      <c r="C61" s="402"/>
+      <c r="D61" s="402"/>
+      <c r="E61" s="402"/>
+      <c r="F61" s="402"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="402"/>
+      <c r="B62" s="402"/>
+      <c r="C62" s="402"/>
+      <c r="D62" s="402"/>
+      <c r="E62" s="402"/>
+      <c r="F62" s="402"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="402"/>
+      <c r="B63" s="402"/>
+      <c r="C63" s="402"/>
+      <c r="D63" s="402"/>
+      <c r="E63" s="402"/>
+      <c r="F63" s="402"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="402"/>
+      <c r="B64" s="402"/>
+      <c r="C64" s="402"/>
+      <c r="D64" s="402"/>
+      <c r="E64" s="402"/>
+      <c r="F64" s="402"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="402"/>
+      <c r="B65" s="402"/>
+      <c r="C65" s="402"/>
+      <c r="D65" s="402"/>
+      <c r="E65" s="402"/>
+      <c r="F65" s="402"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="402"/>
+      <c r="B66" s="402"/>
+      <c r="C66" s="402"/>
+      <c r="D66" s="402"/>
+      <c r="E66" s="402"/>
+      <c r="F66" s="402"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="402"/>
+      <c r="B67" s="402"/>
+      <c r="C67" s="402"/>
+      <c r="D67" s="402"/>
+      <c r="E67" s="402"/>
+      <c r="F67" s="402"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="402"/>
+      <c r="B68" s="402"/>
+      <c r="C68" s="402"/>
+      <c r="D68" s="402"/>
+      <c r="E68" s="402"/>
+      <c r="F68" s="402"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="402"/>
+      <c r="B69" s="402"/>
+      <c r="C69" s="402"/>
+      <c r="D69" s="402"/>
+      <c r="E69" s="402"/>
+      <c r="F69" s="402"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="402"/>
+      <c r="B70" s="402"/>
+      <c r="C70" s="402"/>
+      <c r="D70" s="402"/>
+      <c r="E70" s="402"/>
+      <c r="F70" s="402"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="402"/>
+      <c r="B71" s="402"/>
+      <c r="C71" s="402"/>
+      <c r="D71" s="402"/>
+      <c r="E71" s="402"/>
+      <c r="F71" s="402"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="402"/>
+      <c r="B72" s="402"/>
+      <c r="C72" s="402"/>
+      <c r="D72" s="402"/>
+      <c r="E72" s="402"/>
+      <c r="F72" s="402"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="402"/>
+      <c r="B73" s="402"/>
+      <c r="C73" s="402"/>
+      <c r="D73" s="402"/>
+      <c r="E73" s="402"/>
+      <c r="F73" s="402"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="402"/>
+      <c r="B74" s="402"/>
+      <c r="C74" s="402"/>
+      <c r="D74" s="402"/>
+      <c r="E74" s="402"/>
+      <c r="F74" s="402"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="402"/>
+      <c r="B75" s="402"/>
+      <c r="C75" s="402"/>
+      <c r="D75" s="402"/>
+      <c r="E75" s="402"/>
+      <c r="F75" s="402"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="402"/>
+      <c r="B76" s="402"/>
+      <c r="C76" s="402"/>
+      <c r="D76" s="402"/>
+      <c r="E76" s="402"/>
+      <c r="F76" s="402"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="402"/>
+      <c r="B77" s="402"/>
+      <c r="C77" s="402"/>
+      <c r="D77" s="402"/>
+      <c r="E77" s="402"/>
+      <c r="F77" s="402"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="402"/>
+      <c r="B78" s="402"/>
+      <c r="C78" s="402"/>
+      <c r="D78" s="402"/>
+      <c r="E78" s="402"/>
+      <c r="F78" s="402"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="402"/>
+      <c r="B79" s="402"/>
+      <c r="C79" s="402"/>
+      <c r="D79" s="402"/>
+      <c r="E79" s="402"/>
+      <c r="F79" s="402"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="402"/>
+      <c r="B80" s="402"/>
+      <c r="C80" s="402"/>
+      <c r="D80" s="402"/>
+      <c r="E80" s="402"/>
+      <c r="F80" s="402"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="402"/>
+      <c r="B81" s="402"/>
+      <c r="C81" s="402"/>
+      <c r="D81" s="402"/>
+      <c r="E81" s="402"/>
+      <c r="F81" s="402"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="402"/>
+      <c r="B82" s="402"/>
+      <c r="C82" s="402"/>
+      <c r="D82" s="402"/>
+      <c r="E82" s="402"/>
+      <c r="F82" s="402"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="402"/>
+      <c r="B83" s="402"/>
+      <c r="C83" s="402"/>
+      <c r="D83" s="402"/>
+      <c r="E83" s="402"/>
+      <c r="F83" s="402"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="402"/>
+      <c r="B84" s="402"/>
+      <c r="C84" s="402"/>
+      <c r="D84" s="402"/>
+      <c r="E84" s="402"/>
+      <c r="F84" s="402"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="402"/>
+      <c r="B85" s="402"/>
+      <c r="C85" s="402"/>
+      <c r="D85" s="402"/>
+      <c r="E85" s="402"/>
+      <c r="F85" s="402"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="402"/>
+      <c r="B86" s="402"/>
+      <c r="C86" s="402"/>
+      <c r="D86" s="402"/>
+      <c r="E86" s="402"/>
+      <c r="F86" s="402"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="402"/>
+      <c r="B87" s="402"/>
+      <c r="C87" s="402"/>
+      <c r="D87" s="402"/>
+      <c r="E87" s="402"/>
+      <c r="F87" s="402"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="402"/>
+      <c r="B88" s="402"/>
+      <c r="C88" s="402"/>
+      <c r="D88" s="402"/>
+      <c r="E88" s="402"/>
+      <c r="F88" s="402"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="402"/>
+      <c r="B89" s="402"/>
+      <c r="C89" s="402"/>
+      <c r="D89" s="402"/>
+      <c r="E89" s="402"/>
+      <c r="F89" s="402"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="402"/>
+      <c r="B90" s="402"/>
+      <c r="C90" s="402"/>
+      <c r="D90" s="402"/>
+      <c r="E90" s="402"/>
+      <c r="F90" s="402"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="402"/>
+      <c r="B91" s="402"/>
+      <c r="C91" s="402"/>
+      <c r="D91" s="402"/>
+      <c r="E91" s="402"/>
+      <c r="F91" s="402"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="402"/>
+      <c r="B92" s="402"/>
+      <c r="C92" s="402"/>
+      <c r="D92" s="402"/>
+      <c r="E92" s="402"/>
+      <c r="F92" s="402"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="402"/>
+      <c r="B93" s="402"/>
+      <c r="C93" s="402"/>
+      <c r="D93" s="402"/>
+      <c r="E93" s="402"/>
+      <c r="F93" s="402"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="402"/>
+      <c r="B94" s="402"/>
+      <c r="C94" s="402"/>
+      <c r="D94" s="402"/>
+      <c r="E94" s="402"/>
+      <c r="F94" s="402"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="402"/>
+      <c r="B95" s="402"/>
+      <c r="C95" s="402"/>
+      <c r="D95" s="402"/>
+      <c r="E95" s="402"/>
+      <c r="F95" s="402"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>